--- a/data/trans_dic/IP26C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP26C_R-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>15,36%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 13,61</t>
+          <t>2,35; 24,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,8; 16,03</t>
+          <t>0,0; 24,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 11,91</t>
+          <t>0; 6,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,63; 17,39</t>
+          <t>4,33; 41,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 18,02</t>
+          <t>7,63; 37,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 11,9</t>
+          <t>2,91; 26,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,76; 12,13</t>
+          <t>0,0; 24,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,35; 16,49</t>
+          <t>4,95; 33,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,75; 14,93</t>
+          <t>7,01; 24,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,77</t>
+          <t>3,33; 18,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,8</t>
+          <t>0,0; 9,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,16; 15,43</t>
+          <t>6,87; 28,08</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>12,55%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 11,17</t>
+          <t>7,16; 13,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 14,56</t>
+          <t>8,8; 16,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 13,59</t>
+          <t>5,95; 11,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 16,45</t>
+          <t>9,63; 17,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 15,52</t>
+          <t>10,35; 18,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,2; 18,63</t>
+          <t>5,52; 11,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,32</t>
+          <t>5,76; 12,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 11,11</t>
+          <t>8,35; 16,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 12,04</t>
+          <t>9,75; 14,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 15,48</t>
+          <t>8,07; 12,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 13,22</t>
+          <t>6,59; 10,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 12,38</t>
+          <t>10,16; 15,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>6,52%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 24,88</t>
+          <t>7,15; 14,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,66</t>
+          <t>6,22; 13,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>6,94; 14,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 41,5</t>
+          <t>3,25; 10,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 37,47</t>
+          <t>5,41; 12,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 26,09</t>
+          <t>4,92; 11,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,02</t>
+          <t>8,31; 16,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 33,91</t>
+          <t>4,09; 10,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,01; 24,86</t>
+          <t>7,12; 12,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 18,91</t>
+          <t>6,3; 11,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,83</t>
+          <t>8,44; 14,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 28,08</t>
+          <t>4,55; 9,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>9,44%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 14,85</t>
+          <t>5,07; 11,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,22; 13,41</t>
+          <t>7,64; 14,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 14,93</t>
+          <t>7,09; 13,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 10,42</t>
+          <t>7,45; 16,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 12,72</t>
+          <t>7,94; 15,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 11,73</t>
+          <t>10,2; 18,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,31; 16,54</t>
+          <t>7,65; 15,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,67</t>
+          <t>4,36; 11,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 12,6</t>
+          <t>7,16; 12,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,3; 11,33</t>
+          <t>9,78; 15,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,44; 14,03</t>
+          <t>7,93; 13,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 9,09</t>
+          <t>6,82; 12,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP26C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP26C_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 24,88</t>
+          <t>2,36; 23,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,66</t>
+          <t>0,0; 24,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,63; 37,47</t>
+          <t>8,29; 37,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 26,09</t>
+          <t>2,97; 29,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,02</t>
+          <t>0,0; 24,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,01; 24,86</t>
+          <t>6,45; 23,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 18,91</t>
+          <t>3,21; 19,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,83</t>
+          <t>0,0; 11,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 14,04</t>
+          <t>5,88; 14,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,3; 17,79</t>
+          <t>8,41; 17,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 15,29</t>
+          <t>6,39; 16,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 21,61</t>
+          <t>9,03; 21,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 15,55</t>
+          <t>6,12; 15,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 16,94</t>
+          <t>6,45; 16,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 10,77</t>
+          <t>2,84; 10,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 17,31</t>
+          <t>7,39; 17,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 13,52</t>
+          <t>6,88; 13,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 15,62</t>
+          <t>8,77; 15,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 11,66</t>
+          <t>5,54; 11,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 17,71</t>
+          <t>9,53; 18,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 13,61</t>
+          <t>7,15; 14,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 16,03</t>
+          <t>8,69; 15,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 11,91</t>
+          <t>5,92; 11,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 17,39</t>
+          <t>9,44; 17,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,35; 18,02</t>
+          <t>10,71; 18,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 11,9</t>
+          <t>5,3; 11,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 12,13</t>
+          <t>5,59; 11,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 16,49</t>
+          <t>8,17; 16,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,75; 14,93</t>
+          <t>9,77; 14,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,77</t>
+          <t>8,14; 12,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,8</t>
+          <t>6,53; 10,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,16; 15,43</t>
+          <t>10,0; 15,22</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 14,85</t>
+          <t>7,14; 15,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 13,41</t>
+          <t>6,1; 13,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 14,93</t>
+          <t>6,62; 14,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 10,42</t>
+          <t>3,28; 10,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 12,72</t>
+          <t>5,12; 13,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 11,73</t>
+          <t>4,75; 11,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 16,54</t>
+          <t>7,97; 16,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,67</t>
+          <t>4,48; 11,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 12,6</t>
+          <t>6,99; 12,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 11,33</t>
+          <t>6,39; 11,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 14,03</t>
+          <t>8,34; 13,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 9,09</t>
+          <t>4,53; 9,17</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 11,17</t>
+          <t>5,03; 11,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 14,56</t>
+          <t>7,7; 14,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 13,59</t>
+          <t>7,16; 14,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,45; 16,45</t>
+          <t>7,52; 16,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,94; 15,52</t>
+          <t>7,86; 15,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,2; 18,63</t>
+          <t>10,5; 18,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,32</t>
+          <t>7,56; 15,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 11,11</t>
+          <t>4,63; 11,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 12,04</t>
+          <t>7,27; 12,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,78; 15,48</t>
+          <t>9,82; 15,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,93; 13,22</t>
+          <t>7,98; 13,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 12,38</t>
+          <t>7,09; 12,38</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,78; 11,22</t>
+          <t>7,92; 11,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,18; 12,99</t>
+          <t>9,18; 12,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,64; 11,15</t>
+          <t>7,57; 11,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,53</t>
+          <t>9,34; 13,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,7; 13,84</t>
+          <t>9,84; 13,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,34</t>
+          <t>8,66; 12,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,59; 11,28</t>
+          <t>7,76; 11,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,6; 11,38</t>
+          <t>7,8; 11,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,31; 11,82</t>
+          <t>9,21; 11,9</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,41; 12,07</t>
+          <t>9,33; 12,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 10,68</t>
+          <t>8,25; 10,78</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,11; 12,01</t>
+          <t>9,08; 11,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP26C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP26C_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 23,11</t>
+          <t>2,37; 23,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,1</t>
+          <t>0,0; 26,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,54 +739,54 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 41,5</t>
+          <t>4,0; 43,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 37,77</t>
+          <t>8,96; 40,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 29,12</t>
+          <t>2,9; 29,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,17</t>
+          <t>0,0; 23,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 33,91</t>
+          <t>3,71; 31,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 23,74</t>
+          <t>7,04; 24,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 19,19</t>
+          <t>2,92; 18,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,73</t>
+          <t>0,0; 10,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,87; 28,08</t>
+          <t>6,68; 28,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 14,38</t>
+          <t>5,9; 14,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,41; 17,75</t>
+          <t>8,41; 17,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,39; 16,4</t>
+          <t>5,9; 15,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,03; 21,23</t>
+          <t>9,18; 21,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 15,34</t>
+          <t>6,7; 15,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 16,61</t>
+          <t>6,92; 16,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,59</t>
+          <t>2,89; 10,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 17,9</t>
+          <t>7,48; 17,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,88; 13,24</t>
+          <t>7,26; 13,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 15,78</t>
+          <t>8,73; 15,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 11,69</t>
+          <t>5,47; 11,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,53; 18,0</t>
+          <t>9,44; 17,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 14,14</t>
+          <t>7,13; 13,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,69; 15,6</t>
+          <t>8,8; 15,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,92</t>
+          <t>5,87; 12,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,44; 17,19</t>
+          <t>9,71; 17,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,71; 18,67</t>
+          <t>10,51; 17,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 11,57</t>
+          <t>5,45; 11,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,75</t>
+          <t>5,5; 11,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 16,18</t>
+          <t>8,17; 16,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 14,76</t>
+          <t>9,46; 14,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,84</t>
+          <t>7,83; 12,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,52</t>
+          <t>6,37; 10,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 15,22</t>
+          <t>10,03; 15,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,14; 15,33</t>
+          <t>7,35; 15,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 13,25</t>
+          <t>6,28; 13,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 14,65</t>
+          <t>6,78; 14,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 10,12</t>
+          <t>3,51; 10,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 13,32</t>
+          <t>5,21; 12,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,55</t>
+          <t>4,98; 11,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 16,37</t>
+          <t>8,74; 16,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 11,38</t>
+          <t>4,21; 11,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 12,71</t>
+          <t>7,15; 12,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 11,11</t>
+          <t>6,13; 11,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 13,93</t>
+          <t>8,33; 13,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 9,17</t>
+          <t>4,6; 9,22</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 11,23</t>
+          <t>5,16; 11,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,7; 14,76</t>
+          <t>7,48; 14,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 14,53</t>
+          <t>6,9; 13,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 16,23</t>
+          <t>7,8; 16,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,86; 15,24</t>
+          <t>7,52; 14,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,5; 18,48</t>
+          <t>10,26; 19,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 15,05</t>
+          <t>7,5; 15,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,6</t>
+          <t>4,72; 11,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 12,13</t>
+          <t>7,31; 12,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,82; 15,85</t>
+          <t>10,14; 15,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 13,2</t>
+          <t>8,09; 13,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 12,38</t>
+          <t>6,83; 12,45</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,92; 11,18</t>
+          <t>7,8; 11,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,18; 12,91</t>
+          <t>9,23; 12,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,57; 11,08</t>
+          <t>7,52; 11,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,34; 13,41</t>
+          <t>9,18; 13,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,84; 13,83</t>
+          <t>9,68; 13,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,47</t>
+          <t>8,55; 12,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,54</t>
+          <t>7,72; 11,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,65</t>
+          <t>7,72; 11,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,21; 11,9</t>
+          <t>9,14; 11,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,33; 12,06</t>
+          <t>9,39; 12,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,25; 10,78</t>
+          <t>8,12; 10,74</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,08; 11,93</t>
+          <t>9,08; 12,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP26C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP26C_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>12,95%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 23,8</t>
+          <t>8,34; 16,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,38</t>
+          <t>6,91; 15,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>3,2; 10,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 43,69</t>
+          <t>8,1; 17,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 40,0</t>
+          <t>5,95; 14,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 29,81</t>
+          <t>7,82; 16,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,91</t>
+          <t>4,81; 12,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 31,13</t>
+          <t>8,7; 20,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,04; 24,62</t>
+          <t>8,1; 14,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 18,07</t>
+          <t>8,3; 14,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,75</t>
+          <t>4,96; 10,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,68; 28,3</t>
+          <t>9,26; 17,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>12,35%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 14,53</t>
+          <t>10,35; 18,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,41; 17,59</t>
+          <t>5,52; 11,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 15,48</t>
+          <t>5,76; 12,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 21,41</t>
+          <t>8,12; 16,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,7; 15,35</t>
+          <t>7,16; 13,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 16,73</t>
+          <t>8,8; 16,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 10,8</t>
+          <t>5,95; 11,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 17,7</t>
+          <t>9,48; 17,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 13,47</t>
+          <t>9,75; 14,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,73; 15,68</t>
+          <t>8,07; 12,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 11,62</t>
+          <t>6,59; 10,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 17,34</t>
+          <t>9,97; 15,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 13,66</t>
+          <t>5,41; 12,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 15,8</t>
+          <t>4,92; 11,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 12,37</t>
+          <t>8,31; 16,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 17,24</t>
+          <t>3,25; 9,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 17,81</t>
+          <t>7,15; 14,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 11,53</t>
+          <t>6,22; 13,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 11,79</t>
+          <t>6,94; 14,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 16,05</t>
+          <t>3,03; 9,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,46; 14,48</t>
+          <t>7,12; 12,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,83; 12,6</t>
+          <t>6,3; 11,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 10,76</t>
+          <t>8,44; 14,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 15,53</t>
+          <t>3,89; 8,19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>9,27%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 15,11</t>
+          <t>7,94; 15,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 13,64</t>
+          <t>10,2; 18,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,73</t>
+          <t>7,65; 15,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,57</t>
+          <t>4,2; 10,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 12,56</t>
+          <t>5,07; 11,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 11,78</t>
+          <t>7,64; 14,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,74; 16,51</t>
+          <t>7,09; 13,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 11,33</t>
+          <t>7,43; 15,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 12,81</t>
+          <t>7,16; 12,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 11,03</t>
+          <t>9,78; 15,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 13,67</t>
+          <t>7,93; 13,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 9,22</t>
+          <t>6,7; 12,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>10,87%</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,4%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>10,0%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 11,26</t>
+          <t>9,7; 13,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 14,94</t>
+          <t>8,56; 12,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,9; 13,87</t>
+          <t>7,59; 11,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 16,84</t>
+          <t>6,98; 10,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 14,97</t>
+          <t>7,78; 11,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,26; 19,09</t>
+          <t>9,18; 12,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,5; 15,01</t>
+          <t>7,64; 11,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 11,94</t>
+          <t>8,86; 12,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,31; 12,03</t>
+          <t>9,31; 11,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 15,52</t>
+          <t>9,41; 12,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,09; 13,43</t>
+          <t>8,16; 10,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,83; 12,45</t>
+          <t>8,63; 11,56</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,43%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,91%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,3%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>11,33%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>10,41%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>9,4%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>9,46%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>10,5%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>10,67%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>9,35%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>10,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>7,8; 11,22</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,23; 12,9</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,52; 11,1</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>9,18; 13,48</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>9,68; 13,53</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>8,55; 12,68</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>7,72; 11,43</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>7,72; 11,47</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>9,14; 11,82</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>9,39; 12,21</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>8,12; 10,74</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>9,08; 12,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
